--- a/Database/商品.xlsx
+++ b/Database/商品.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\桑原さんソフト\GitHub\成分表印刷\資料\Database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\桑原さんソフト\GitHub\成分表印刷\PrintIngredientsList\PrintIngredientsList\bin\Debug\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E3B3E04-1CD5-48A4-87F3-7D760AC5E88D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B750EB5C-1522-4555-8670-D203A7FF122D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5610" yWindow="2325" windowWidth="20385" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2700" yWindow="1050" windowWidth="26100" windowHeight="16350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="商品データ" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="55">
   <si>
     <t>分類</t>
   </si>
@@ -54,9 +54,6 @@
       <t>ヤキガシ</t>
     </rPh>
     <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ココナッツスティック</t>
   </si>
   <si>
     <t>玄米（福岡県産）、有機メープルシロップ、有機ココナッツオイル、有機ココナッツファイン、有機片栗粉、有機ココナッツフラワー、高きび、きび糖、食塩</t>
@@ -291,6 +288,14 @@
     <rPh sb="2" eb="4">
       <t>コウボウ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ココナッツスティックｄｆｄｆｆ</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -322,7 +327,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -332,6 +337,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -348,7 +359,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -358,6 +369,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -638,282 +655,310 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{056D1AAA-C8E0-45CB-9771-31698DB73B58}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="26.625" customWidth="1"/>
-    <col min="3" max="3" width="33.375" customWidth="1"/>
-    <col min="4" max="4" width="12.5" customWidth="1"/>
-    <col min="5" max="5" width="13.875" customWidth="1"/>
-    <col min="6" max="7" width="15.5" customWidth="1"/>
-    <col min="8" max="8" width="23.125" customWidth="1"/>
-    <col min="9" max="9" width="58" customWidth="1"/>
+    <col min="1" max="1" width="9" style="6"/>
+    <col min="3" max="3" width="26.625" customWidth="1"/>
+    <col min="4" max="4" width="33.375" customWidth="1"/>
+    <col min="5" max="5" width="12.5" customWidth="1"/>
+    <col min="6" max="6" width="13.875" customWidth="1"/>
+    <col min="7" max="8" width="15.5" customWidth="1"/>
+    <col min="9" max="9" width="23.125" customWidth="1"/>
+    <col min="10" max="10" width="58" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="93.75">
+      <c r="A2" s="6">
+        <v>1001</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1">
+        <v>30</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>6</v>
+      <c r="J2" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="93.75">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:10" ht="100.5" customHeight="1">
+      <c r="A3" s="6">
+        <v>1002</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="1">
+        <v>30</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="1">
+      <c r="H3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="75">
+      <c r="A4" s="6">
+        <v>1001</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="1">
         <v>30</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="G4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="37.5">
+      <c r="A5" s="6">
+        <v>2001</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="1">
+        <v>10</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>13</v>
+      <c r="J5" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="100.5" customHeight="1">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="2" t="s">
+    <row r="6" spans="1:10">
+      <c r="A6" s="6">
+        <v>2002</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="1">
         <v>15</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="1">
+      <c r="G6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="6">
+        <v>2003</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="1">
+        <v>20</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="6">
+        <v>3001</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="1">
+        <v>60</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="6">
+        <v>3002</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="2" t="s">
+      <c r="E9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="1">
+        <v>90</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="75">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="1">
-        <v>30</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="37.5">
-      <c r="A5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="1">
-        <v>10</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="1">
-        <v>15</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="1">
-        <v>20</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="1">
-        <v>60</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="I8" s="2" t="s">
+      <c r="J9" s="2" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="1">
-        <v>90</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/Database/商品.xlsx
+++ b/Database/商品.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\桑原さんソフト\GitHub\成分表印刷\PrintIngredientsList\PrintIngredientsList\bin\Debug\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B750EB5C-1522-4555-8670-D203A7FF122D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49FD9BE9-59A3-4A22-9D42-4035595D6510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2700" yWindow="1050" windowWidth="26100" windowHeight="16350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2310" yWindow="1050" windowWidth="26100" windowHeight="16350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="商品データ" sheetId="2" r:id="rId1"/>
@@ -658,7 +658,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -771,7 +771,7 @@
     </row>
     <row r="4" spans="1:10" ht="75">
       <c r="A4" s="6">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>

--- a/Database/商品.xlsx
+++ b/Database/商品.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\桑原さんソフト\GitHub\成分表印刷\PrintIngredientsList\PrintIngredientsList\bin\Debug\Database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuwah\Documents\(00_MyDevelopments)\01_成分表印刷\PrintIngredientsList_Module-main\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49FD9BE9-59A3-4A22-9D42-4035595D6510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{733DB588-717D-4979-A5C7-D3D1F4B27890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2310" yWindow="1050" windowWidth="26100" windowHeight="16350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="90" yWindow="-18120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="商品データ" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="75">
   <si>
     <t>分類</t>
   </si>
@@ -56,8 +56,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>玄米（福岡県産）、有機メープルシロップ、有機ココナッツオイル、有機ココナッツファイン、有機片栗粉、有機ココナッツフラワー、高きび、きび糖、食塩</t>
-    <phoneticPr fontId="2"/>
+    <t>ココナッツスティック</t>
   </si>
   <si>
     <t>3本</t>
@@ -78,13 +77,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>※玄米は自然栽培米を使用しています。
-※食塩は天日塩を使用しています。
-※塩麹のお米は自然栽培です。
-※粉末昆布は北海道産の天然利尻昆布の粉末を使用しています。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ラングドシャ</t>
   </si>
   <si>
@@ -112,105 +104,134 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>生菓子</t>
-    <rPh sb="0" eb="3">
-      <t>ナマガシ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ケーキ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>AAA</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>BBB</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CCC</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>DDD</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>EEE</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>原材料 ＢＢＢＢ</t>
-    <rPh sb="0" eb="3">
-      <t>ゲンザイリョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>原材料 CCCC</t>
-    <rPh sb="0" eb="3">
-      <t>ゲンザイリョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>原材料 DDDDD</t>
-    <rPh sb="0" eb="3">
-      <t>ゲンザイリョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>原材料 EEEEE</t>
-    <rPh sb="0" eb="3">
-      <t>ゲンザイリョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>原材料 AAAA
-AAAAA2、AAAA3</t>
-    <rPh sb="0" eb="3">
-      <t>ゲンザイリョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>A個</t>
+    <t>賞味期限</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>原材料</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>本店</t>
+    <rPh sb="0" eb="2">
+      <t>ホンテン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>マフィン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>生米パン</t>
+    <rPh sb="0" eb="2">
+      <t>ナマゴメ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>玄米(福岡県産)、胚芽米(福岡県産)、有機ココナッツオイル、きび糖、酵母、食塩</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1個</t>
     <rPh sb="1" eb="2">
       <t>コ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>B個</t>
-    <rPh sb="1" eb="2">
-      <t>コ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>C個</t>
-    <rPh sb="1" eb="2">
-      <t>コ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>D個</t>
-    <rPh sb="1" eb="2">
-      <t>コ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>E個</t>
-    <rPh sb="1" eb="2">
-      <t>コ</t>
-    </rPh>
+    <t>無し</t>
+    <rPh sb="0" eb="1">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>本店</t>
+    <rPh sb="0" eb="2">
+      <t>ホンテン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>玄米(福岡県産)、たまねぎ、有機ココナッツオイル、きび糖、白神こだま酵母、食塩、こしょう</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>玄米（福岡県産）、有機豆乳、有機アーモンド、有機ココナッツオイル、有機メープルシロップ、黒豆、有機抹茶、食塩 / ベーキングパウダー（アルミフリー）</t>
+    <rPh sb="9" eb="11">
+      <t>ユウキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>玄米(福岡県産)、有機豆乳、有機ｱｰﾓﾝﾄﾞ、有機ﾒｰﾌﾟﾙｼﾛｯﾌﾟ、有機ｵﾚﾝｼﾞｽﾌﾟﾚｯﾄﾞ、有機ｺｺﾅｯﾂｵｲﾙ、有機ﾍﾞﾙｶﾞﾓｯﾄ、食塩 、有機ﾚﾓﾝ、きび糖
+/ ﾍﾞｰｷﾝｸﾞﾊﾟｳﾀﾞｰ(ｱﾙﾐﾌﾘｰ)</t>
+    <rPh sb="9" eb="11">
+      <t>ユウキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>玄米(福岡県産)、有機豆乳、有機アーモンド、有機ココナッツオイル、ブルーベリー、きび糖、食塩
+/ ﾍﾞｰｷﾝｸﾞﾊﾟｳﾀﾞｰ(ｱﾙﾐﾌﾘｰ)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>大豆、アーモンド</t>
+    <rPh sb="0" eb="2">
+      <t>ダイズ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>玄米(福岡県産)、赤ほうれん草、有機ココナッツオイル、きび糖、白神こだま酵母、食塩</t>
+    <rPh sb="9" eb="10">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ソウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>玄米（福岡県産）、有機豆乳、重ね煮（コリンキー、玉ねぎ、人参、えのき）、有機アーモンド、有機ココナッツシュガー、有機ココナッツオイル、食塩 / ﾍﾞｰｷﾝｸﾞﾊﾟｳﾀﾞｰ（ｱﾙﾐﾌﾘｰ）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ラスク</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>玄米（福岡県産）、有機豆乳、有機ココナッツオイル、きび糖、食塩/ベーキングパウダー（アルミフリー）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 玄米（福岡県産）、有機豆乳、有機ココナッツオイル、きび糖、有機ブラックココア、食塩/ベーキングパウダー（アルミフリー）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>大豆</t>
+    <rPh sb="0" eb="2">
+      <t>ダイズ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ケーキ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>豆乳ヨーグルト（北海道産）、玄米、豆乳、有機ココナッツオイル、有機メープルシロップ、有機ｵﾚﾝｼﾞｽﾌﾟﾚｯﾄﾞ、有機ｺｺﾅｯﾂﾐﾙｸ、白味噌、酒粕、有機ﾚﾓﾝ果汁、有機ｺｺﾅｯﾂｼｭｶﾞｰ、食塩</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ヴィーガンベイクドチーズケーキ</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -221,81 +242,228 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>アレルギーAAA</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>アレルギーBBB</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>アレルギーCCC</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>アレルギーDDD</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>アレルギーEEE</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>※塩麹のお米は自然栽培です。
-※粉末昆布は北海道産の天然利尻昆布の粉末を使用しています。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>※AAAAAA</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>※BBBBBBB</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>※CCCCCC</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>※DDDDDD</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>※EEEEEEEEEEEEEEEEEEEEEEEEE</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>賞味期限</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>原材料</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>本店</t>
+    <t>大豆</t>
     <rPh sb="0" eb="2">
-      <t>ホンテン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>第２工房</t>
+      <t>ダイズ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>50g</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>玄米(福岡県産)、有機ココナッツオイル、有機ココナッツシュガー、食塩</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>玄米(福岡県産)、有機ココナッツシュガー、有機ココナッツオイル、有機ココア、有機コンスターチ、有機ココナッツMCTオイル、有機カカオニブ、食塩</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>玄米(福岡県産)、有機ココナッツオイル、有機ココナッツシュガー、有機片栗粉、有機黒ごま(宮崎県産)、有機ジンジャーパウダ、食塩</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>発芽玄米クッキー
+(プレーン)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>発芽玄米クッキー
+(カカオ)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>発芽玄米クッキー
+(ジンジャーセサミ)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1枚</t>
+    <rPh sb="1" eb="2">
+      <t>マイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>切れはしラスク
+(プレーン)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>切れはしラスク
+(ココア)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>発芽玄米 生米パン
+(プレーン)</t>
+    <rPh sb="0" eb="2">
+      <t>ハツガ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ゲンマイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ナマゴメ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>発芽玄米 生米パン
+(オニオン)</t>
+    <rPh sb="0" eb="2">
+      <t>ハツガ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ゲンマイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ナマゴメ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>発芽玄米 生米パン
+(赤ほうれん草)</t>
+    <rPh sb="0" eb="2">
+      <t>ハツガ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ゲンマイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ナマゴメ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ソウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>玄マフィン
+(有機抹茶と黒豆)</t>
     <rPh sb="0" eb="1">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>コウボウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ココナッツスティックｄｆｄｆｆ</t>
+      <t>ゲン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>玄マフィン
+(オレンジアールグレイ)</t>
+    <rPh sb="0" eb="1">
+      <t>ゲン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>玄マフィン
+(酵素ブルーベリー)</t>
+    <rPh sb="0" eb="1">
+      <t>ゲン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>玄マフィン
+(季節の重ね煮)</t>
+    <rPh sb="0" eb="1">
+      <t>ゲン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キセツ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>カサ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ニ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※玄米は福岡県産の自然栽培米を使用。
+※食塩は天日湖塩を使用。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※玄米は福岡県産の自然栽培米を使用。
+※野菜は自然栽培のものを使用。
+※食塩は天日湖塩を使用。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※玄米、胚芽米は福岡県産の自然栽培米を使用。
+※食塩は天日湖塩を使用。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※玄米は福岡県産の自然栽培米を使用。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>玄米（福岡県産）、有機メープルシロップ、有機ココナッツオイル、有機ココナッツファイン、有機片栗粉、有機ココナッツフラワー、有機ココナッツシュガー、全粒ソルガム、食塩</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>玄マフィン
+(オーガニックあまおう)</t>
+    <rPh sb="0" eb="1">
+      <t>ゲン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>玄マフィン
+(りんごとシナモン)</t>
+    <rPh sb="0" eb="1">
+      <t>ゲン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>玄マフィン
+(カフェオレカカオニブ)</t>
+    <rPh sb="0" eb="1">
+      <t>ゲン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>玄米（福岡県産）、有機豆乳、有機メープルシロップ、有機ココナッツオイル、有機コーヒー、有機カカオニブ、食塩 / ベーキングパウダー（アルミフリー）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>玄マフィン
+(カシスオレンジ)</t>
+    <rPh sb="0" eb="1">
+      <t>ゲン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>玄米（福岡県産）、有機豆乳、有機アーモンド、有機メープルシロップ、有機ココナッツオイル、有機オレンジスプレッド、有機カシススプレッド、食塩　/ベーキングパウダー（アルミフリー）</t>
+    <rPh sb="9" eb="11">
+      <t>ユウキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>りんご（青森県産）、玄米、有機豆乳、有機アーモンド、有機メープルシロップ、有機ココナッツオイル、食塩、有機シナモンパウダー　/　ベーキングパウダー（アルミフリー）</t>
+    <rPh sb="13" eb="15">
+      <t>ユウキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>玄米（福岡県産）、有機豆乳、有機アーモンド、有機メープルシロップ、有機ココナッツオイル、有機あまおうコンポート（有機あまおう、きび糖、レモン果汁）食塩、有機ブラックペッパー　/ ベーキングパウダー（アルミフリー）</t>
+    <rPh sb="9" eb="11">
+      <t>ユウキ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -303,7 +471,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -326,8 +494,15 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -337,12 +512,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -369,11 +538,11 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -655,15 +824,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{056D1AAA-C8E0-45CB-9771-31698DB73B58}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="9" style="6"/>
     <col min="3" max="3" width="26.625" customWidth="1"/>
     <col min="4" max="4" width="33.375" customWidth="1"/>
     <col min="5" max="5" width="12.5" customWidth="1"/>
@@ -674,8 +842,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="5" t="s">
-        <v>53</v>
+      <c r="A1" t="s">
+        <v>35</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -684,13 +852,13 @@
         <v>1</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>3</v>
@@ -706,17 +874,17 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="93.75">
-      <c r="A2" s="6">
+      <c r="A2">
         <v>1001</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>9</v>
@@ -731,27 +899,28 @@
         <v>11</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="100.5" customHeight="1">
-      <c r="A3" s="6">
+      <c r="A3">
+        <f>A2+1</f>
         <v>1002</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="F3" s="1">
         <v>30</v>
@@ -760,30 +929,31 @@
         <v>10</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="75">
-      <c r="A4" s="6">
+      <c r="A4">
+        <f t="shared" ref="A4:A10" si="0">A3+1</f>
         <v>1003</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="F4" s="1">
         <v>30</v>
@@ -792,173 +962,570 @@
         <v>10</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="37.5">
-      <c r="A5" s="6">
-        <v>2001</v>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="56.25">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>1004</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="76.5" customHeight="1">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>1005</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="76.5" customHeight="1">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>1006</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="93.75">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>1007</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="1">
-        <v>10</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="6">
-        <v>2002</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="1">
-        <v>15</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="6">
-        <v>2003</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="1">
-        <v>20</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="6">
-        <v>3001</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>25</v>
+      <c r="C8" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="F8" s="1">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="6">
-        <v>3002</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="93.75">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>1008</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="75">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>1009</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="93.75">
+      <c r="A11">
+        <f>A10+1</f>
+        <v>1010</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="56.25">
+      <c r="A12">
+        <f t="shared" ref="A12:A17" si="1">A11+1</f>
+        <v>1011</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="1">
-        <v>90</v>
-      </c>
-      <c r="G9" s="1" t="s">
+      <c r="C12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="E12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="1">
+        <v>30</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="75">
+      <c r="A13">
+        <f t="shared" si="1"/>
+        <v>1012</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="1">
+        <v>30</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="93.75">
+      <c r="A14">
+        <f t="shared" si="1"/>
+        <v>1013</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="D14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="1">
+        <v>4</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="37.5">
+      <c r="A15">
+        <f t="shared" si="1"/>
+        <v>1014</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="F15" s="1">
+        <v>30</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="93.75">
+      <c r="A16">
+        <f t="shared" si="1"/>
+        <v>1015</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="1">
+        <v>30</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="75">
+      <c r="A17">
+        <f t="shared" si="1"/>
+        <v>1016</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>48</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" s="1">
+        <v>30</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="131.25">
+      <c r="A18">
+        <v>1017</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="1">
+        <v>2</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="93.75">
+      <c r="A19">
+        <v>1018</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="1">
+        <v>2</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="93.75">
+      <c r="A20">
+        <v>1019</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="1">
+        <v>2</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="112.5">
+      <c r="A21">
+        <v>1020</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="1">
+        <v>2</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
